--- a/Turma 462 - Outubro 2017/Aula 3/Compra Carro Se E Ou.xlsx
+++ b/Turma 462 - Outubro 2017/Aula 3/Compra Carro Se E Ou.xlsx
@@ -236,7 +236,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -548,13 +548,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D10"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
     <col min="6" max="9" width="17.140625" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
@@ -623,6 +626,10 @@
       <c r="C4">
         <v>2005</v>
       </c>
+      <c r="D4" t="str">
+        <f>IF(OR(B4="bom",C4&gt;1998),"Pode Comprar","Não Comprar")</f>
+        <v>Pode Comprar</v>
+      </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
@@ -647,6 +654,10 @@
       <c r="C5">
         <v>1965</v>
       </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D10" si="0">IF(OR(B5="bom",C5&gt;1998),"Pode Comprar","Não Comprar")</f>
+        <v>Não Comprar</v>
+      </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
@@ -657,7 +668,7 @@
         <v>27</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J10" si="0">IF(AND(D5="comprar",I5="concede"),F5&amp;" Conseguiu Comprar","")</f>
+        <f t="shared" ref="J5:J10" si="1">IF(AND(D5="comprar",I5="concede"),F5&amp;" Conseguiu Comprar","")</f>
         <v/>
       </c>
     </row>
@@ -671,6 +682,10 @@
       <c r="C6">
         <v>1999</v>
       </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Pode Comprar</v>
+      </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
@@ -681,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -695,6 +710,10 @@
       <c r="C7">
         <v>1973</v>
       </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Pode Comprar</v>
+      </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
@@ -705,7 +724,7 @@
         <v>27</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -719,6 +738,10 @@
       <c r="C8">
         <v>1975</v>
       </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Não Comprar</v>
+      </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
@@ -729,7 +752,7 @@
         <v>28</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -743,6 +766,10 @@
       <c r="C9">
         <v>1993</v>
       </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Pode Comprar</v>
+      </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
@@ -753,7 +780,7 @@
         <v>28</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -767,6 +794,10 @@
       <c r="C10">
         <v>1980</v>
       </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Não Comprar</v>
+      </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
@@ -777,7 +808,7 @@
         <v>27</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
